--- a/LSTM/predicted_companies.xlsx
+++ b/LSTM/predicted_companies.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B77"/>
+  <dimension ref="A1:B118"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,7 +455,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>600707</v>
+        <v>600090</v>
       </c>
       <c r="B3" t="n">
         <v>1</v>
@@ -463,7 +463,7 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>600145</v>
+        <v>2348</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
@@ -471,7 +471,7 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>35</v>
+        <v>600707</v>
       </c>
       <c r="B5" t="n">
         <v>1</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>600695</v>
+        <v>600145</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
@@ -487,7 +487,7 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>925</v>
+        <v>2742</v>
       </c>
       <c r="B7" t="n">
         <v>1</v>
@@ -495,7 +495,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>719</v>
+        <v>35</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
@@ -503,7 +503,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>600234</v>
+        <v>600695</v>
       </c>
       <c r="B9" t="n">
         <v>1</v>
@@ -511,7 +511,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>603169</v>
+        <v>603996</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
@@ -519,7 +519,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>68</v>
+        <v>925</v>
       </c>
       <c r="B11" t="n">
         <v>1</v>
@@ -527,7 +527,7 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>2102</v>
+        <v>719</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
@@ -535,7 +535,7 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>600071</v>
+        <v>68</v>
       </c>
       <c r="B13" t="n">
         <v>1</v>
@@ -543,7 +543,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>600385</v>
+        <v>600331</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
@@ -551,7 +551,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>600159</v>
+        <v>779</v>
       </c>
       <c r="B15" t="n">
         <v>1</v>
@@ -559,7 +559,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>600789</v>
+        <v>2102</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
@@ -567,7 +567,7 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>600735</v>
+        <v>600385</v>
       </c>
       <c r="B17" t="n">
         <v>1</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>557</v>
+        <v>600689</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
@@ -583,7 +583,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>600666</v>
+        <v>600159</v>
       </c>
       <c r="B19" t="n">
         <v>1</v>
@@ -591,7 +591,7 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>600768</v>
+        <v>600179</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
@@ -599,7 +599,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>600385</v>
+        <v>732</v>
       </c>
       <c r="B21" t="n">
         <v>1</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>300477</v>
+        <v>736</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
@@ -615,7 +615,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>555</v>
+        <v>2021</v>
       </c>
       <c r="B23" t="n">
         <v>1</v>
@@ -623,7 +623,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>156</v>
+        <v>600735</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
@@ -631,7 +631,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>600385</v>
+        <v>557</v>
       </c>
       <c r="B25" t="n">
         <v>1</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>757</v>
+        <v>600666</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
@@ -647,7 +647,7 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>600802</v>
+        <v>885</v>
       </c>
       <c r="B27" t="n">
         <v>1</v>
@@ -655,7 +655,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>2076</v>
+        <v>600235</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
@@ -663,7 +663,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>600086</v>
+        <v>600768</v>
       </c>
       <c r="B29" t="n">
         <v>1</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>300367</v>
+        <v>600065</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
@@ -679,7 +679,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>557</v>
+        <v>300477</v>
       </c>
       <c r="B31" t="n">
         <v>1</v>
@@ -687,7 +687,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>600423</v>
+        <v>699</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
@@ -695,7 +695,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>600338</v>
+        <v>555</v>
       </c>
       <c r="B33" t="n">
         <v>1</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>893</v>
+        <v>2471</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
@@ -711,7 +711,7 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>600722</v>
+        <v>156</v>
       </c>
       <c r="B35" t="n">
         <v>1</v>
@@ -719,7 +719,7 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>600423</v>
+        <v>757</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
@@ -727,7 +727,7 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>35</v>
+        <v>600297</v>
       </c>
       <c r="B37" t="n">
         <v>1</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>600629</v>
+        <v>600792</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
@@ -743,7 +743,7 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>17</v>
+        <v>981</v>
       </c>
       <c r="B39" t="n">
         <v>1</v>
@@ -751,7 +751,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>982</v>
+        <v>600281</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
@@ -759,7 +759,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>600629</v>
+        <v>687</v>
       </c>
       <c r="B41" t="n">
         <v>1</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>30</v>
+        <v>300362</v>
       </c>
       <c r="B42" t="n">
         <v>1</v>
@@ -775,7 +775,7 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>600290</v>
+        <v>2076</v>
       </c>
       <c r="B43" t="n">
         <v>1</v>
@@ -783,7 +783,7 @@
     </row>
     <row r="44">
       <c r="A44" t="n">
-        <v>300489</v>
+        <v>600155</v>
       </c>
       <c r="B44" t="n">
         <v>1</v>
@@ -791,7 +791,7 @@
     </row>
     <row r="45">
       <c r="A45" t="n">
-        <v>600338</v>
+        <v>600086</v>
       </c>
       <c r="B45" t="n">
         <v>1</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="46">
       <c r="A46" t="n">
-        <v>600550</v>
+        <v>587</v>
       </c>
       <c r="B46" t="n">
         <v>1</v>
@@ -807,7 +807,7 @@
     </row>
     <row r="47">
       <c r="A47" t="n">
-        <v>659</v>
+        <v>600614</v>
       </c>
       <c r="B47" t="n">
         <v>1</v>
@@ -815,7 +815,7 @@
     </row>
     <row r="48">
       <c r="A48" t="n">
-        <v>670</v>
+        <v>557</v>
       </c>
       <c r="B48" t="n">
         <v>1</v>
@@ -823,7 +823,7 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>600065</v>
+        <v>2089</v>
       </c>
       <c r="B49" t="n">
         <v>1</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>600421</v>
+        <v>815</v>
       </c>
       <c r="B50" t="n">
         <v>1</v>
@@ -839,7 +839,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>2076</v>
+        <v>600338</v>
       </c>
       <c r="B51" t="n">
         <v>1</v>
@@ -847,7 +847,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>820</v>
+        <v>893</v>
       </c>
       <c r="B52" t="n">
         <v>1</v>
@@ -855,7 +855,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>600784</v>
+        <v>600722</v>
       </c>
       <c r="B53" t="n">
         <v>1</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="54">
       <c r="A54" t="n">
-        <v>600589</v>
+        <v>620</v>
       </c>
       <c r="B54" t="n">
         <v>1</v>
@@ -871,7 +871,7 @@
     </row>
     <row r="55">
       <c r="A55" t="n">
-        <v>600602</v>
+        <v>600145</v>
       </c>
       <c r="B55" t="n">
         <v>1</v>
@@ -879,7 +879,7 @@
     </row>
     <row r="56">
       <c r="A56" t="n">
-        <v>600181</v>
+        <v>600423</v>
       </c>
       <c r="B56" t="n">
         <v>1</v>
@@ -887,7 +887,7 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B57" t="n">
         <v>1</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="58">
       <c r="A58" t="n">
-        <v>420</v>
+        <v>600629</v>
       </c>
       <c r="B58" t="n">
         <v>1</v>
@@ -903,7 +903,7 @@
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>555</v>
+        <v>17</v>
       </c>
       <c r="B59" t="n">
         <v>1</v>
@@ -911,7 +911,7 @@
     </row>
     <row r="60">
       <c r="A60" t="n">
-        <v>600159</v>
+        <v>17</v>
       </c>
       <c r="B60" t="n">
         <v>1</v>
@@ -919,7 +919,7 @@
     </row>
     <row r="61">
       <c r="A61" t="n">
-        <v>792</v>
+        <v>600781</v>
       </c>
       <c r="B61" t="n">
         <v>1</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="62">
       <c r="A62" t="n">
-        <v>300080</v>
+        <v>600842</v>
       </c>
       <c r="B62" t="n">
         <v>1</v>
@@ -935,7 +935,7 @@
     </row>
     <row r="63">
       <c r="A63" t="n">
-        <v>409</v>
+        <v>673</v>
       </c>
       <c r="B63" t="n">
         <v>1</v>
@@ -943,7 +943,7 @@
     </row>
     <row r="64">
       <c r="A64" t="n">
-        <v>885</v>
+        <v>600629</v>
       </c>
       <c r="B64" t="n">
         <v>1</v>
@@ -951,7 +951,7 @@
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>600734</v>
+        <v>2638</v>
       </c>
       <c r="B65" t="n">
         <v>1</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="66">
       <c r="A66" t="n">
-        <v>600596</v>
+        <v>30</v>
       </c>
       <c r="B66" t="n">
         <v>1</v>
@@ -967,7 +967,7 @@
     </row>
     <row r="67">
       <c r="A67" t="n">
-        <v>600319</v>
+        <v>708</v>
       </c>
       <c r="B67" t="n">
         <v>1</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="68">
       <c r="A68" t="n">
-        <v>600604</v>
+        <v>600146</v>
       </c>
       <c r="B68" t="n">
         <v>1</v>
@@ -983,7 +983,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>600870</v>
+        <v>68</v>
       </c>
       <c r="B69" t="n">
         <v>1</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="70">
       <c r="A70" t="n">
-        <v>806</v>
+        <v>2599</v>
       </c>
       <c r="B70" t="n">
         <v>1</v>
@@ -999,7 +999,7 @@
     </row>
     <row r="71">
       <c r="A71" t="n">
-        <v>600385</v>
+        <v>600290</v>
       </c>
       <c r="B71" t="n">
         <v>1</v>
@@ -1007,7 +1007,7 @@
     </row>
     <row r="72">
       <c r="A72" t="n">
-        <v>300317</v>
+        <v>300489</v>
       </c>
       <c r="B72" t="n">
         <v>1</v>
@@ -1015,7 +1015,7 @@
     </row>
     <row r="73">
       <c r="A73" t="n">
-        <v>600401</v>
+        <v>600338</v>
       </c>
       <c r="B73" t="n">
         <v>1</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="74">
       <c r="A74" t="n">
-        <v>600182</v>
+        <v>600550</v>
       </c>
       <c r="B74" t="n">
         <v>1</v>
@@ -1031,7 +1031,7 @@
     </row>
     <row r="75">
       <c r="A75" t="n">
-        <v>600290</v>
+        <v>659</v>
       </c>
       <c r="B75" t="n">
         <v>1</v>
@@ -1039,7 +1039,7 @@
     </row>
     <row r="76">
       <c r="A76" t="n">
-        <v>820</v>
+        <v>670</v>
       </c>
       <c r="B76" t="n">
         <v>1</v>
@@ -1047,9 +1047,337 @@
     </row>
     <row r="77">
       <c r="A77" t="n">
-        <v>813</v>
+        <v>912</v>
       </c>
       <c r="B77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>1696</v>
+      </c>
+      <c r="B78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>600421</v>
+      </c>
+      <c r="B79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>982</v>
+      </c>
+      <c r="B80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>2076</v>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>673</v>
+      </c>
+      <c r="B82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>820</v>
+      </c>
+      <c r="B83" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>600784</v>
+      </c>
+      <c r="B84" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>697</v>
+      </c>
+      <c r="B85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>981</v>
+      </c>
+      <c r="B86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>600589</v>
+      </c>
+      <c r="B87" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>600181</v>
+      </c>
+      <c r="B88" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>622</v>
+      </c>
+      <c r="B89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>17</v>
+      </c>
+      <c r="B90" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>600691</v>
+      </c>
+      <c r="B91" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>820</v>
+      </c>
+      <c r="B92" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>420</v>
+      </c>
+      <c r="B93" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>719</v>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>555</v>
+      </c>
+      <c r="B95" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>600159</v>
+      </c>
+      <c r="B96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>921</v>
+      </c>
+      <c r="B97" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>600783</v>
+      </c>
+      <c r="B98" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>19</v>
+      </c>
+      <c r="B99" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>982</v>
+      </c>
+      <c r="B100" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>300080</v>
+      </c>
+      <c r="B101" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>823</v>
+      </c>
+      <c r="B102" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>409</v>
+      </c>
+      <c r="B103" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>885</v>
+      </c>
+      <c r="B104" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>670</v>
+      </c>
+      <c r="B105" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="n">
+        <v>600734</v>
+      </c>
+      <c r="B106" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="n">
+        <v>600319</v>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="n">
+        <v>600550</v>
+      </c>
+      <c r="B108" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="n">
+        <v>806</v>
+      </c>
+      <c r="B109" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="n">
+        <v>300317</v>
+      </c>
+      <c r="B110" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="n">
+        <v>2471</v>
+      </c>
+      <c r="B111" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="n">
+        <v>600870</v>
+      </c>
+      <c r="B112" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="n">
+        <v>657</v>
+      </c>
+      <c r="B113" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="n">
+        <v>300752</v>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="n">
+        <v>600290</v>
+      </c>
+      <c r="B115" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="n">
+        <v>600146</v>
+      </c>
+      <c r="B116" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="n">
+        <v>600179</v>
+      </c>
+      <c r="B117" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="n">
+        <v>820</v>
+      </c>
+      <c r="B118" t="n">
         <v>1</v>
       </c>
     </row>
